--- a/src/P02_data/T04_preprocess/S10_center_location_7_mean.xlsx
+++ b/src/P02_data/T04_preprocess/S10_center_location_7_mean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>sigma_x_post</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>diff_sigma_x</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +499,9 @@
       <c r="G2" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="H2" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +527,9 @@
       <c r="G3" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="H3" t="n">
+        <v>2.333333333333333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -544,6 +555,9 @@
       <c r="G4" t="n">
         <v>8.666666666666666</v>
       </c>
+      <c r="H4" t="n">
+        <v>8.666666666666666</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -569,6 +583,9 @@
       <c r="G5" t="n">
         <v>7.666666666666667</v>
       </c>
+      <c r="H5" t="n">
+        <v>7.666666666666667</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -594,6 +611,9 @@
       <c r="G6" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="H6" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -619,6 +639,9 @@
       <c r="G7" t="n">
         <v>9.666666666666666</v>
       </c>
+      <c r="H7" t="n">
+        <v>9.666666666666666</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -642,6 +665,9 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H8" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -669,6 +695,9 @@
       <c r="G9" t="n">
         <v>4</v>
       </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -694,6 +723,9 @@
       <c r="G10" t="n">
         <v>-2</v>
       </c>
+      <c r="H10" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -719,6 +751,9 @@
       <c r="G11" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +779,9 @@
       <c r="G12" t="n">
         <v>1</v>
       </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -769,6 +807,9 @@
       <c r="G13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -794,6 +835,9 @@
       <c r="G14" t="n">
         <v>3</v>
       </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -819,6 +863,9 @@
       <c r="G15" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="H15" t="n">
+        <v>3.333333333333333</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -844,6 +891,9 @@
       <c r="G16" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -869,6 +919,9 @@
       <c r="G17" t="n">
         <v>5</v>
       </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -894,6 +947,9 @@
       <c r="G18" t="n">
         <v>7.333333333333333</v>
       </c>
+      <c r="H18" t="n">
+        <v>7.333333333333333</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -919,6 +975,9 @@
       <c r="G19" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="H19" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -944,6 +1003,9 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -969,6 +1031,9 @@
       <c r="G21" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="H21" t="n">
+        <v>3.666666666666667</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -994,6 +1059,9 @@
       <c r="G22" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="H22" t="n">
+        <v>2.333333333333333</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1019,6 +1087,9 @@
       <c r="G23" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="H23" t="n">
+        <v>3.666666666666667</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1044,6 +1115,9 @@
       <c r="G24" t="n">
         <v>4</v>
       </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1069,6 +1143,9 @@
       <c r="G25" t="n">
         <v>5.666666666666667</v>
       </c>
+      <c r="H25" t="n">
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1094,6 +1171,9 @@
       <c r="G26" t="n">
         <v>8</v>
       </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1119,6 +1199,9 @@
       <c r="G27" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="H27" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1144,6 +1227,9 @@
       <c r="G28" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="H28" t="n">
+        <v>3.666666666666667</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1169,6 +1255,9 @@
       <c r="G29" t="n">
         <v>5</v>
       </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1194,6 +1283,9 @@
       <c r="G30" t="n">
         <v>9.666666666666666</v>
       </c>
+      <c r="H30" t="n">
+        <v>9.666666666666666</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1219,6 +1311,9 @@
       <c r="G31" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="H31" t="n">
+        <v>2.666666666666667</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1244,6 +1339,9 @@
       <c r="G32" t="n">
         <v>3</v>
       </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1269,6 +1367,9 @@
       <c r="G33" t="n">
         <v>7.666666666666667</v>
       </c>
+      <c r="H33" t="n">
+        <v>7.666666666666667</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1294,6 +1395,9 @@
       <c r="G34" t="n">
         <v>4</v>
       </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1319,6 +1423,9 @@
       <c r="G35" t="n">
         <v>8</v>
       </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1344,6 +1451,9 @@
       <c r="G36" t="n">
         <v>8</v>
       </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1369,6 +1479,9 @@
       <c r="G37" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="H37" t="n">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1394,6 +1507,9 @@
       <c r="G38" t="n">
         <v>-1</v>
       </c>
+      <c r="H38" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1419,6 +1535,9 @@
       <c r="G39" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="H39" t="n">
+        <v>3.666666666666667</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1444,6 +1563,9 @@
       <c r="G40" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1469,6 +1591,9 @@
       <c r="G41" t="n">
         <v>4</v>
       </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1494,6 +1619,9 @@
       <c r="G42" t="n">
         <v>9.666666666666666</v>
       </c>
+      <c r="H42" t="n">
+        <v>9.666666666666666</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1519,6 +1647,9 @@
       <c r="G43" t="n">
         <v>6.333333333333333</v>
       </c>
+      <c r="H43" t="n">
+        <v>6.333333333333333</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1544,6 +1675,9 @@
       <c r="G44" t="n">
         <v>8.333333333333334</v>
       </c>
+      <c r="H44" t="n">
+        <v>8.333333333333334</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1569,6 +1703,9 @@
       <c r="G45" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="H45" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1594,6 +1731,9 @@
       <c r="G46" t="n">
         <v>6.666666666666667</v>
       </c>
+      <c r="H46" t="n">
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1619,6 +1759,9 @@
       <c r="G47" t="n">
         <v>-2</v>
       </c>
+      <c r="H47" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1644,6 +1787,9 @@
       <c r="G48" t="n">
         <v>8.666666666666666</v>
       </c>
+      <c r="H48" t="n">
+        <v>8.666666666666666</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1669,6 +1815,9 @@
       <c r="G49" t="n">
         <v>13</v>
       </c>
+      <c r="H49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1694,6 +1843,9 @@
       <c r="G50" t="n">
         <v>12.33333333333333</v>
       </c>
+      <c r="H50" t="n">
+        <v>12.33333333333333</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1719,6 +1871,9 @@
       <c r="G51" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="H51" t="n">
+        <v>1.666666666666667</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1744,6 +1899,9 @@
       <c r="G52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1769,6 +1927,9 @@
       <c r="G53" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="H53" t="n">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1794,6 +1955,9 @@
       <c r="G54" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="H54" t="n">
+        <v>3.666666666666667</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1817,6 +1981,9 @@
         <v>20</v>
       </c>
       <c r="G55" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>2.333333333333333</v>
       </c>
     </row>
